--- a/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG_U.xlsx
+++ b/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG_U.xlsx
@@ -1,67 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EA49C-366E-456A-B76A-2A295E02AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
         <r>
           <rPr>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Specify date</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
         <r>
           <rPr>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Yes-Approve/No-Refuse</t>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -132,43 +131,30 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>Preferred Unavailable</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,7 +166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,14 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.6328125" customWidth="1"/>
     <col min="2" max="2" width="25.453125" customWidth="1"/>
@@ -642,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -671,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>9</v>
@@ -683,17 +669,20 @@
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="2"/>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG_U.xlsx
+++ b/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG_U.xlsx
@@ -1,66 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA701DD8-AEB1-43B3-B225-A44269B8CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
+            <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
           </rPr>
           <t>Author:</t>
         </r>
         <r>
           <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">
 Specify date</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
+            <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
           </rPr>
           <t>Author:</t>
         </r>
         <r>
           <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">
 Yes-Approve/No-Refuse</t>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -140,21 +141,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,7 +180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,27 +540,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -672,17 +687,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG_U.xlsx
+++ b/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG_U.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA701DD8-AEB1-43B3-B225-A44269B8CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB0190F-9D77-4438-A33C-46E3643DEFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
